--- a/dist/document/dest/2020/10/doctors/70.xlsx
+++ b/dist/document/dest/2020/10/doctors/70.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>21</v>
       </c>
-      <c r="C2" s="1">
-        <v>91770</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>660</v>
       </c>
-      <c r="C3" s="1">
-        <v>3036000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
-        <v>224400</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>258</v>
       </c>
-      <c r="C5" s="1">
-        <v>890100</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>50</v>
       </c>
-      <c r="C6" s="1">
-        <v>241500</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>201600</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
-        <v>99900</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
-        <v>22550</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
-        <v>184200</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
-        <v>455500</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <v>92400</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
-        <v>70500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="1">
-        <v>171300</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15" s="1">
-        <v>192500</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="1">
-        <v>57500</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>5</v>
       </c>
-      <c r="C17" s="1">
-        <v>1525</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>10</v>
       </c>
-      <c r="C18" s="1">
-        <v>39980</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>52</v>
       </c>
-      <c r="C19" s="1">
-        <v>353600</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -603,7 +549,7 @@
         <v>1134</v>
       </c>
       <c r="C20" s="1">
-        <v>6426825</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/70.xlsx
+++ b/dist/document/dest/2020/10/doctors/70.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,162 +399,183 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Acyclovir 800mg</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>21</v>
+        <v>180</v>
+      </c>
+      <c r="C2" s="1">
+        <v>828000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B3" s="1">
-        <v>660</v>
+        <v>248</v>
+      </c>
+      <c r="C3" s="1">
+        <v>855600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>270</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3742200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Fml (Fluorometholone) 0.1%</v>
       </c>
       <c r="B5" s="1">
-        <v>258</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>33600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B6" s="1">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>289800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Fml (Fluorometholone) 0.1%</v>
+        <v>Medrol 16mg (Methylprednisolone)</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22550</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+        <v>Oflovid Solution 5ml (Ofloxacin 0.3%)</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>61400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Optive 15ml (Glycerin 0.9%,Carboxymethylcellulose 0.5%)</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>364400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Oflovid Solution 5ml (Ofloxacin 0.3%)</v>
+        <v>Panadol (Paracetamol)</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Optive 15ml (Glycerin 0.9%,Carboxymethylcellulose 0.5%)</v>
+        <v>Refresh Tear 15ML (Natri carboxymethylcellulose 0.5%)</v>
       </c>
       <c r="B11" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>211500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Pantonix (Pantoprazole 40mg)</v>
+        <v>Sancoba  5ml(Cyanocoblamin 0.02%)</v>
       </c>
       <c r="B12" s="1">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>114200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Refresh Tear 15ML (Natri carboxymethylcellulose 0.5%)</v>
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>243225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Sancoba  5ml(Cyanocoblamin 0.02%)</v>
+        <v>Syseye (Hypromellose 0.3% 10ml)</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>55000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Syseye (Hypromellose 0.3% 10ml)</v>
+        <v>Tobradex Collyre (Tobramycin, dexamethasone)</v>
       </c>
       <c r="B15" s="1">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>104000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Tobradex OIN 3.5g (Tobramycin, dexamethasone)</v>
+        <v>Voltaren 75  (Diclofenac 75)</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>190400</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Vitamin C 500</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Voltaren 50 (Diclofenac 50)</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>Voltaren 75  (Diclofenac 75)</v>
-      </c>
-      <c r="B19" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1134</v>
-      </c>
-      <c r="C20" s="1">
-        <v>NaN</v>
+        <v>872</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7136875</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C17"/>
   </ignoredErrors>
 </worksheet>
 </file>